--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col1a1-Cd93.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col1a1-Cd93.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.108069666666667</v>
+        <v>26.81310566666667</v>
       </c>
       <c r="H2">
-        <v>27.324209</v>
+        <v>80.439317</v>
       </c>
       <c r="I2">
-        <v>0.00155006418458712</v>
+        <v>0.004518206005002021</v>
       </c>
       <c r="J2">
-        <v>0.00155006418458712</v>
+        <v>0.004518206005002021</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>135.955556</v>
+        <v>281.0920463333333</v>
       </c>
       <c r="N2">
-        <v>407.866668</v>
+        <v>843.2761389999999</v>
       </c>
       <c r="O2">
-        <v>0.6947679994035034</v>
+        <v>0.8291026083535286</v>
       </c>
       <c r="P2">
-        <v>0.6947679994035034</v>
+        <v>0.8291026083535286</v>
       </c>
       <c r="Q2">
-        <v>1238.292675618402</v>
+        <v>7536.950740395229</v>
       </c>
       <c r="R2">
-        <v>11144.63408056561</v>
+        <v>67832.55666355706</v>
       </c>
       <c r="S2">
-        <v>0.001076934992472616</v>
+        <v>0.003746056383825751</v>
       </c>
       <c r="T2">
-        <v>0.001076934992472616</v>
+        <v>0.003746056383825751</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.108069666666667</v>
+        <v>26.81310566666667</v>
       </c>
       <c r="H3">
-        <v>27.324209</v>
+        <v>80.439317</v>
       </c>
       <c r="I3">
-        <v>0.00155006418458712</v>
+        <v>0.004518206005002021</v>
       </c>
       <c r="J3">
-        <v>0.00155006418458712</v>
+        <v>0.004518206005002021</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>1.347366</v>
       </c>
       <c r="O3">
-        <v>0.002295129398228494</v>
+        <v>0.001324719879221983</v>
       </c>
       <c r="P3">
-        <v>0.002295129398228494</v>
+        <v>0.001324719879221983</v>
       </c>
       <c r="Q3">
-        <v>4.090634464832667</v>
+        <v>12.04235564322467</v>
       </c>
       <c r="R3">
-        <v>36.815710183494</v>
+        <v>108.381200789022</v>
       </c>
       <c r="S3">
-        <v>3.557597879186978E-06</v>
+        <v>5.985357313246317E-06</v>
       </c>
       <c r="T3">
-        <v>3.557597879186977E-06</v>
+        <v>5.985357313246317E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.108069666666667</v>
+        <v>26.81310566666667</v>
       </c>
       <c r="H4">
-        <v>27.324209</v>
+        <v>80.439317</v>
       </c>
       <c r="I4">
-        <v>0.00155006418458712</v>
+        <v>0.004518206005002021</v>
       </c>
       <c r="J4">
-        <v>0.00155006418458712</v>
+        <v>0.004518206005002021</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.896484</v>
+        <v>4.452417</v>
       </c>
       <c r="N4">
-        <v>8.689451999999999</v>
+        <v>13.357251</v>
       </c>
       <c r="O4">
-        <v>0.01480178120844327</v>
+        <v>0.01313274635953239</v>
       </c>
       <c r="P4">
-        <v>0.01480178120844327</v>
+        <v>0.01313274635953239</v>
       </c>
       <c r="Q4">
-        <v>26.38137806038533</v>
+        <v>119.383127493063</v>
       </c>
       <c r="R4">
-        <v>237.432402543468</v>
+        <v>1074.448147437567</v>
       </c>
       <c r="S4">
-        <v>2.294371091930257E-05</v>
+        <v>5.933645346380766E-05</v>
       </c>
       <c r="T4">
-        <v>2.294371091930258E-05</v>
+        <v>5.933645346380766E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.108069666666667</v>
+        <v>26.81310566666667</v>
       </c>
       <c r="H5">
-        <v>27.324209</v>
+        <v>80.439317</v>
       </c>
       <c r="I5">
-        <v>0.00155006418458712</v>
+        <v>0.004518206005002021</v>
       </c>
       <c r="J5">
-        <v>0.00155006418458712</v>
+        <v>0.004518206005002021</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>56.38366533333333</v>
+        <v>53.03808999999999</v>
       </c>
       <c r="N5">
-        <v>169.150996</v>
+        <v>159.11427</v>
       </c>
       <c r="O5">
-        <v>0.2881350899898248</v>
+        <v>0.156439925407717</v>
       </c>
       <c r="P5">
-        <v>0.2881350899898248</v>
+        <v>0.156439925407717</v>
       </c>
       <c r="Q5">
-        <v>513.5463519180182</v>
+        <v>1422.115911528176</v>
       </c>
       <c r="R5">
-        <v>4621.917167262164</v>
+        <v>12799.04320375359</v>
       </c>
       <c r="S5">
-        <v>0.0004466278833160142</v>
+        <v>0.0007068278103992151</v>
       </c>
       <c r="T5">
-        <v>0.0004466278833160142</v>
+        <v>0.0007068278103992152</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5771.873535333332</v>
+        <v>5771.873535333333</v>
       </c>
       <c r="H6">
         <v>17315.620606</v>
       </c>
       <c r="I6">
-        <v>0.9822909543423312</v>
+        <v>0.9726032482643521</v>
       </c>
       <c r="J6">
-        <v>0.9822909543423313</v>
+        <v>0.9726032482643523</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>135.955556</v>
+        <v>281.0920463333333</v>
       </c>
       <c r="N6">
-        <v>407.866668</v>
+        <v>843.2761389999999</v>
       </c>
       <c r="O6">
-        <v>0.6947679994035034</v>
+        <v>0.8291026083535286</v>
       </c>
       <c r="P6">
-        <v>0.6947679994035034</v>
+        <v>0.8291026083535286</v>
       </c>
       <c r="Q6">
-        <v>784718.2756579289</v>
+        <v>1622427.743224058</v>
       </c>
       <c r="R6">
-        <v>7062464.48092136</v>
+        <v>14601849.68901652</v>
       </c>
       <c r="S6">
-        <v>0.6824643211805795</v>
+        <v>0.8063878900290888</v>
       </c>
       <c r="T6">
-        <v>0.6824643211805796</v>
+        <v>0.8063878900290889</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5771.873535333332</v>
+        <v>5771.873535333333</v>
       </c>
       <c r="H7">
         <v>17315.620606</v>
       </c>
       <c r="I7">
-        <v>0.9822909543423312</v>
+        <v>0.9726032482643521</v>
       </c>
       <c r="J7">
-        <v>0.9822909543423313</v>
+        <v>0.9726032482643523</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,22 +871,22 @@
         <v>1.347366</v>
       </c>
       <c r="O7">
-        <v>0.002295129398228494</v>
+        <v>0.001324719879221983</v>
       </c>
       <c r="P7">
-        <v>0.002295129398228494</v>
+        <v>0.001324719879221983</v>
       </c>
       <c r="Q7">
         <v>2592.275385935977</v>
       </c>
       <c r="R7">
-        <v>23330.47847342379</v>
+        <v>23330.4784734238</v>
       </c>
       <c r="S7">
-        <v>0.002254484846925008</v>
+        <v>0.001288426857571661</v>
       </c>
       <c r="T7">
-        <v>0.002254484846925007</v>
+        <v>0.001288426857571662</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5771.873535333332</v>
+        <v>5771.873535333333</v>
       </c>
       <c r="H8">
         <v>17315.620606</v>
       </c>
       <c r="I8">
-        <v>0.9822909543423312</v>
+        <v>0.9726032482643521</v>
       </c>
       <c r="J8">
-        <v>0.9822909543423313</v>
+        <v>0.9726032482643523</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.896484</v>
+        <v>4.452417</v>
       </c>
       <c r="N8">
-        <v>8.689451999999999</v>
+        <v>13.357251</v>
       </c>
       <c r="O8">
-        <v>0.01480178120844327</v>
+        <v>0.01313274635953239</v>
       </c>
       <c r="P8">
-        <v>0.01480178120844327</v>
+        <v>0.01313274635953239</v>
       </c>
       <c r="Q8">
-        <v>16718.13934511643</v>
+        <v>25698.78785056823</v>
       </c>
       <c r="R8">
-        <v>150463.2541060479</v>
+        <v>231289.0906551141</v>
       </c>
       <c r="S8">
-        <v>0.01453965578920813</v>
+        <v>0.01277295176791305</v>
       </c>
       <c r="T8">
-        <v>0.01453965578920813</v>
+        <v>0.01277295176791305</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5771.873535333332</v>
+        <v>5771.873535333333</v>
       </c>
       <c r="H9">
         <v>17315.620606</v>
       </c>
       <c r="I9">
-        <v>0.9822909543423312</v>
+        <v>0.9726032482643521</v>
       </c>
       <c r="J9">
-        <v>0.9822909543423313</v>
+        <v>0.9726032482643523</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>56.38366533333333</v>
+        <v>53.03808999999999</v>
       </c>
       <c r="N9">
-        <v>169.150996</v>
+        <v>159.11427</v>
       </c>
       <c r="O9">
-        <v>0.2881350899898248</v>
+        <v>0.156439925407717</v>
       </c>
       <c r="P9">
-        <v>0.2881350899898248</v>
+        <v>0.156439925407717</v>
       </c>
       <c r="Q9">
-        <v>325439.3857625581</v>
+        <v>306129.1480356274</v>
       </c>
       <c r="R9">
-        <v>2928954.471863023</v>
+        <v>2755162.332320647</v>
       </c>
       <c r="S9">
-        <v>0.2830324925256185</v>
+        <v>0.1521539796097785</v>
       </c>
       <c r="T9">
-        <v>0.2830324925256185</v>
+        <v>0.1521539796097785</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>93.677025</v>
+        <v>132.4457753333333</v>
       </c>
       <c r="H10">
-        <v>281.031075</v>
+        <v>397.337326</v>
       </c>
       <c r="I10">
-        <v>0.01594250007799006</v>
+        <v>0.02231808970163987</v>
       </c>
       <c r="J10">
-        <v>0.01594250007799006</v>
+        <v>0.02231808970163988</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>135.955556</v>
+        <v>281.0920463333333</v>
       </c>
       <c r="N10">
-        <v>407.866668</v>
+        <v>843.2761389999999</v>
       </c>
       <c r="O10">
-        <v>0.6947679994035034</v>
+        <v>0.8291026083535286</v>
       </c>
       <c r="P10">
-        <v>0.6947679994035034</v>
+        <v>0.8291026083535286</v>
       </c>
       <c r="Q10">
-        <v>12735.9120183009</v>
+        <v>37229.45401665159</v>
       </c>
       <c r="R10">
-        <v>114623.2081647081</v>
+        <v>335065.0861498643</v>
       </c>
       <c r="S10">
-        <v>0.01107633888467535</v>
+        <v>0.01850398638509764</v>
       </c>
       <c r="T10">
-        <v>0.01107633888467535</v>
+        <v>0.01850398638509764</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>93.677025</v>
+        <v>132.4457753333333</v>
       </c>
       <c r="H11">
-        <v>281.031075</v>
+        <v>397.337326</v>
       </c>
       <c r="I11">
-        <v>0.01594250007799006</v>
+        <v>0.02231808970163987</v>
       </c>
       <c r="J11">
-        <v>0.01594250007799006</v>
+        <v>0.02231808970163988</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,22 +1119,22 @@
         <v>1.347366</v>
       </c>
       <c r="O11">
-        <v>0.002295129398228494</v>
+        <v>0.001324719879221983</v>
       </c>
       <c r="P11">
-        <v>0.002295129398228494</v>
+        <v>0.001324719879221983</v>
       </c>
       <c r="Q11">
-        <v>42.07241282205</v>
+        <v>59.48431150925733</v>
       </c>
       <c r="R11">
-        <v>378.65171539845</v>
+        <v>535.3588035833161</v>
       </c>
       <c r="S11">
-        <v>3.659010061025505E-05</v>
+        <v>2.956521709402177E-05</v>
       </c>
       <c r="T11">
-        <v>3.659010061025504E-05</v>
+        <v>2.956521709402177E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>93.677025</v>
+        <v>132.4457753333333</v>
       </c>
       <c r="H12">
-        <v>281.031075</v>
+        <v>397.337326</v>
       </c>
       <c r="I12">
-        <v>0.01594250007799006</v>
+        <v>0.02231808970163987</v>
       </c>
       <c r="J12">
-        <v>0.01594250007799006</v>
+        <v>0.02231808970163988</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.896484</v>
+        <v>4.452417</v>
       </c>
       <c r="N12">
-        <v>8.689451999999999</v>
+        <v>13.357251</v>
       </c>
       <c r="O12">
-        <v>0.01480178120844327</v>
+        <v>0.01313274635953239</v>
       </c>
       <c r="P12">
-        <v>0.01480178120844327</v>
+        <v>0.01313274635953239</v>
       </c>
       <c r="Q12">
-        <v>271.3340040801</v>
+        <v>589.7038216723139</v>
       </c>
       <c r="R12">
-        <v>2442.0060367209</v>
+        <v>5307.334395050826</v>
       </c>
       <c r="S12">
-        <v>0.0002359773980699987</v>
+        <v>0.0002930978112809283</v>
       </c>
       <c r="T12">
-        <v>0.0002359773980699987</v>
+        <v>0.0002930978112809284</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>93.677025</v>
+        <v>132.4457753333333</v>
       </c>
       <c r="H13">
-        <v>281.031075</v>
+        <v>397.337326</v>
       </c>
       <c r="I13">
-        <v>0.01594250007799006</v>
+        <v>0.02231808970163987</v>
       </c>
       <c r="J13">
-        <v>0.01594250007799006</v>
+        <v>0.02231808970163988</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>56.38366533333333</v>
+        <v>53.03808999999999</v>
       </c>
       <c r="N13">
-        <v>169.150996</v>
+        <v>159.11427</v>
       </c>
       <c r="O13">
-        <v>0.2881350899898248</v>
+        <v>0.156439925407717</v>
       </c>
       <c r="P13">
-        <v>0.2881350899898248</v>
+        <v>0.156439925407717</v>
       </c>
       <c r="Q13">
-        <v>5281.8540270223</v>
+        <v>7024.670952249112</v>
       </c>
       <c r="R13">
-        <v>47536.6862432007</v>
+        <v>63222.03857024202</v>
       </c>
       <c r="S13">
-        <v>0.004593593694634456</v>
+        <v>0.003491440288167278</v>
       </c>
       <c r="T13">
-        <v>0.004593593694634455</v>
+        <v>0.00349144028816728</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.272029666666667</v>
+        <v>3.326003</v>
       </c>
       <c r="H14">
-        <v>3.816089</v>
+        <v>9.978009</v>
       </c>
       <c r="I14">
-        <v>0.0002164813950916887</v>
+        <v>0.0005604560290058679</v>
       </c>
       <c r="J14">
-        <v>0.0002164813950916888</v>
+        <v>0.000560456029005868</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>135.955556</v>
+        <v>281.0920463333333</v>
       </c>
       <c r="N14">
-        <v>407.866668</v>
+        <v>843.2761389999999</v>
       </c>
       <c r="O14">
-        <v>0.6947679994035034</v>
+        <v>0.8291026083535286</v>
       </c>
       <c r="P14">
-        <v>0.6947679994035034</v>
+        <v>0.8291026083535286</v>
       </c>
       <c r="Q14">
-        <v>172.9395005801613</v>
+        <v>934.9129893808056</v>
       </c>
       <c r="R14">
-        <v>1556.455505221452</v>
+        <v>8414.21690442725</v>
       </c>
       <c r="S14">
-        <v>0.000150404345775932</v>
+        <v>0.0004646755555162259</v>
       </c>
       <c r="T14">
-        <v>0.000150404345775932</v>
+        <v>0.000464675555516226</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.272029666666667</v>
+        <v>3.326003</v>
       </c>
       <c r="H15">
-        <v>3.816089</v>
+        <v>9.978009</v>
       </c>
       <c r="I15">
-        <v>0.0002164813950916887</v>
+        <v>0.0005604560290058679</v>
       </c>
       <c r="J15">
-        <v>0.0002164813950916888</v>
+        <v>0.000560456029005868</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1367,22 +1367,22 @@
         <v>1.347366</v>
       </c>
       <c r="O15">
-        <v>0.002295129398228494</v>
+        <v>0.001324719879221983</v>
       </c>
       <c r="P15">
-        <v>0.002295129398228494</v>
+        <v>0.001324719879221983</v>
       </c>
       <c r="Q15">
-        <v>0.5712965079526666</v>
+        <v>1.493781119366</v>
       </c>
       <c r="R15">
-        <v>5.141668571574</v>
+        <v>13.444030074294</v>
       </c>
       <c r="S15">
-        <v>4.968528140444524E-07</v>
+        <v>7.424472430538857E-07</v>
       </c>
       <c r="T15">
-        <v>4.968528140444524E-07</v>
+        <v>7.424472430538859E-07</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.272029666666667</v>
+        <v>3.326003</v>
       </c>
       <c r="H16">
-        <v>3.816089</v>
+        <v>9.978009</v>
       </c>
       <c r="I16">
-        <v>0.0002164813950916887</v>
+        <v>0.0005604560290058679</v>
       </c>
       <c r="J16">
-        <v>0.0002164813950916888</v>
+        <v>0.000560456029005868</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.896484</v>
+        <v>4.452417</v>
       </c>
       <c r="N16">
-        <v>8.689451999999999</v>
+        <v>13.357251</v>
       </c>
       <c r="O16">
-        <v>0.01480178120844327</v>
+        <v>0.01313274635953239</v>
       </c>
       <c r="P16">
-        <v>0.01480178120844327</v>
+        <v>0.01313274635953239</v>
       </c>
       <c r="Q16">
-        <v>3.684413577025333</v>
+        <v>14.808752299251</v>
       </c>
       <c r="R16">
-        <v>33.159722193228</v>
+        <v>133.278770693259</v>
       </c>
       <c r="S16">
-        <v>3.204310245845742E-06</v>
+        <v>7.36032687460479E-06</v>
       </c>
       <c r="T16">
-        <v>3.204310245845742E-06</v>
+        <v>7.360326874604792E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.272029666666667</v>
+        <v>3.326003</v>
       </c>
       <c r="H17">
-        <v>3.816089</v>
+        <v>9.978009</v>
       </c>
       <c r="I17">
-        <v>0.0002164813950916887</v>
+        <v>0.0005604560290058679</v>
       </c>
       <c r="J17">
-        <v>0.0002164813950916888</v>
+        <v>0.000560456029005868</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>56.38366533333333</v>
+        <v>53.03808999999999</v>
       </c>
       <c r="N17">
-        <v>169.150996</v>
+        <v>159.11427</v>
       </c>
       <c r="O17">
-        <v>0.2881350899898248</v>
+        <v>0.156439925407717</v>
       </c>
       <c r="P17">
-        <v>0.2881350899898248</v>
+        <v>0.156439925407717</v>
       </c>
       <c r="Q17">
-        <v>71.72169501940489</v>
+        <v>176.40484645427</v>
       </c>
       <c r="R17">
-        <v>645.4952551746439</v>
+        <v>1587.64361808843</v>
       </c>
       <c r="S17">
-        <v>6.237588625586656E-05</v>
+        <v>8.767769937198324E-05</v>
       </c>
       <c r="T17">
-        <v>6.237588625586656E-05</v>
+        <v>8.767769937198327E-05</v>
       </c>
     </row>
   </sheetData>
